--- a/ManaloK9-Tracker.xlsx
+++ b/ManaloK9-Tracker.xlsx
@@ -405,10 +405,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -524,42 +524,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Reserved</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>Tiktok</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Danzell Joy Gamboa Cerda</t>
+          <t>Rodzell Jan Gamboa Cerda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0912</t>
+          <t>09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14:56</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13:55</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -628,118 +628,6 @@
         </is>
       </c>
       <c r="V2" t="inlineStr">
-        <is>
-          <t>6000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Reserved</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Rodzell Jan Gamboa Cerda</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2025-01-04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1,10</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Rodzell Jan Cerda</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>877</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
         <is>
           <t>6000</t>
         </is>

--- a/ManaloK9-Tracker.xlsx
+++ b/ManaloK9-Tracker.xlsx
@@ -8,7 +8,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$V$1</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -405,10 +407,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -524,116 +526,453 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Gamboa Cerda</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20:28</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Cerda</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Gamboa Cerda</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22:44</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Cerda</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Reserved</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tiktok</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Rodzell Jan Gamboa Cerda</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-01-04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>1,10</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Rodzell Jan Cerda</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>877</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Gamboa Cerda</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23:08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Rodzell Jan Cerda</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>6000</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ManaloK9-Tracker.xlsx
+++ b/ManaloK9-Tracker.xlsx
@@ -407,10 +407,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A7" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -638,334 +638,442 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Excepteur quia in ob</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>1986-03-15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>Ahmed Mueller</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rodzell Jan Gamboa Cerda</t>
+          <t>Eligendi ea et tempo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-01-02</t>
+          <t>2013-09-24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>2003-10-14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>22:44</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Atque numquam quia a</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Qui esse sapiente co</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Quis error exercitat</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Excepturi minus non </t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Rodzell Jan Cerda</t>
+          <t>99</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>Possimus maiores ex</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>55</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reserved</t>
+          <t>Excepteur quia in ob</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>1986-03-15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>Ahmed Mueller</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rodzell Jan Gamboa Cerda</t>
+          <t>Eligendi ea et tempo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2013-09-24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>2003-10-14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>2024-12-04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Atque numquam quia a</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Qui esse sapiente co</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Quis error exercitat</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t xml:space="preserve">Excepturi minus non </t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Rodzell Jan Cerda</t>
+          <t>99</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>Possimus maiores ex</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>55</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>92</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Excepteur quia in ob</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FB</t>
+          <t>1986-03-15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>Ahmed Mueller</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Eligendi ea et tempo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2013-09-24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2003-10-14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Atque numquam quia a</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Qui esse sapiente co</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Quis error exercitat</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excepturi minus non </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Possimus maiores ex</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cancel</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Rodzell Jan Gamboa Cerda</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2025-01-07</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>23:12</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>23:08</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>1,10</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Rodzell Jan Cerda</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
         <is>
           <t>3000</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>877</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>6000</t>
         </is>

--- a/ManaloK9-Tracker.xlsx
+++ b/ManaloK9-Tracker.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$W$4</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -407,10 +407,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A3:XFD7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -418,106 +418,111 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>UID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Reservation Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>In</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Out</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Night</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Children</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Student</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Videoke</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Room</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Room #</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Cottage</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>No.Pax</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Receptionist</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Downpayment</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Gcash (Reference#)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Full Payment</t>
         </is>
@@ -526,561 +531,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>5f7e3440-34cc-42a9-8491-08d51819787a</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Call</t>
+          <t>Consequatur Dolor d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>1981-05-24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rodzell Jan Gamboa Cerda</t>
+          <t>Caesar Neal</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>Dolorem a id reicien</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>1972-12-12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>1977-08-07</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20:28</t>
+          <t>1983-09-20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Reprehenderit rem mo</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Fugiat asperiores od</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>Quibusdam nobis simi</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>820</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Minus impedit molli</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Rodzell Jan Cerda</t>
+          <t>14</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>66</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>877</t>
+          <t>Vero proident corpo</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>61</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Excepteur quia in ob</t>
+          <t>UID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1986-03-15</t>
+          <t>Placeat autem accus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ahmed Mueller</t>
+          <t>2015-04-21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Eligendi ea et tempo</t>
+          <t>Eaton Ingram</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2013-09-24</t>
+          <t>Optio fugit iste i</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2003-10-14</t>
+          <t>1993-08-07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-12-04</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2008-02-18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Atque numquam quia a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>Veniam sed laudanti</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Qui esse sapiente co</t>
+          <t>82</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Quis error exercitat</t>
+          <t>Est corrupti neque</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>Sit rerum sint ipsa</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excepturi minus non </t>
+          <t>780</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>Vero et qui fuga Ut</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>96</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Possimus maiores ex</t>
+          <t>19</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>Officia harum volupt</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Excepteur quia in ob</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1986-03-15</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ahmed Mueller</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Eligendi ea et tempo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2013-09-24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2003-10-14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-12-04</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Atque numquam quia a</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Qui esse sapiente co</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Quis error exercitat</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excepturi minus non </t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Possimus maiores ex</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Excepteur quia in ob</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1986-03-15</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ahmed Mueller</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Eligendi ea et tempo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2013-09-24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2003-10-14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-12-04</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Atque numquam quia a</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Qui esse sapiente co</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Quis error exercitat</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Excepturi minus non </t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Possimus maiores ex</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cancel</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-01-09</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Rodzell Jan Gamboa Cerda</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1,10</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>877</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>6000</t>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>74</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1"/>
+  <autoFilter ref="A1:W4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>